--- a/mercury/src/test/resources/testdata/manifest-upload/manifest-with-multiple-bad-columns.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/manifest-with-multiple-bad-columns.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>004-002</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Sample Type</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -778,7 +784,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>74</v>
       </c>
@@ -797,8 +803,11 @@
       <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -817,8 +826,11 @@
       <c r="F2" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -837,8 +849,11 @@
       <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -857,8 +872,11 @@
       <c r="F4" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -877,8 +895,11 @@
       <c r="F5" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -897,8 +918,11 @@
       <c r="F6" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -917,8 +941,11 @@
       <c r="F7" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -937,8 +964,11 @@
       <c r="F8" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -957,8 +987,11 @@
       <c r="F9" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -977,8 +1010,11 @@
       <c r="F10" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -997,8 +1033,11 @@
       <c r="F11" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1017,8 +1056,11 @@
       <c r="F12" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1037,8 +1079,11 @@
       <c r="F13" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1057,8 +1102,11 @@
       <c r="F14" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1077,8 +1125,11 @@
       <c r="F15" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1097,8 +1148,11 @@
       <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1117,8 +1171,11 @@
       <c r="F17" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -1137,8 +1194,11 @@
       <c r="F18" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1157,8 +1217,11 @@
       <c r="F19" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1177,8 +1240,11 @@
       <c r="F20" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1197,8 +1263,11 @@
       <c r="F21" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -1217,8 +1286,11 @@
       <c r="F22" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1237,8 +1309,11 @@
       <c r="F23" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -1256,6 +1331,9 @@
       </c>
       <c r="F24" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
